--- a/biology/Botanique/Horticulteur/Horticulteur.xlsx
+++ b/biology/Botanique/Horticulteur/Horticulteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon le dictionnaire de l'Académie française, l'horticulteur est une personne qui pratique l'art de cultiver les jardins, de pratiquer la culture des légumes, des fleurs, des arbres ou arbustes fruitiers et d'ornement. Ce n'est donc pas toujours un métier car le terme désigne aussi la personne qui cultive son jardin. Il a donc pour activité la culture de plantes, dans une finalité ornementale ou pour l'alimentation.
 La plupart du temps, l'horticulteur accompagne ses cultures de la graine à la plante adulte, convenant à la commercialisation.
@@ -516,35 +528,336 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">La connaissance
-L'horticulteur producteur de plantes doit avoir une connaissance très pointue des plantes qu'il choisit de mettre en culture. Effectivement, pour pouvoir vendre une plante il vaut mieux la connaître pour mieux orienter le client.
-La multiplication
-Le semis
+          <t>La connaissance</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'horticulteur producteur de plantes doit avoir une connaissance très pointue des plantes qu'il choisit de mettre en culture. Effectivement, pour pouvoir vendre une plante il vaut mieux la connaître pour mieux orienter le client.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Horticulteur</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Horticulteur</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Les missions</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>La multiplication</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le semis
 Le bouturage
 La greffe
 Le marcottage
 La division des touffes
-Séparation des stolons
-L'élevage
-La protection contre les ennemis
-La lutte chimique
+Séparation des stolons</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Horticulteur</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Horticulteur</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les missions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La protection contre les ennemis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La lutte chimique
 La lutte biologique
-La lutte raisonnée
-La commercialisation
-Les spécialités
-Les métiers de ce secteur économique sont généralement des métiers d'extérieur et donc soumis aux aléas climatiques (pluie, vent, neige, froid...). Les emplois sous serres sont soumis aux chaleurs estivales.
-Le pépiniériste
-Parmi les métiers connexes, on désignera du nom de pépiniériste un agriculteur spécialisé dans la production de plantes pérennes ou ligneuses d'extérieur qui demandent plusieurs années de culture avant d'être commercialisables.
+La lutte raisonnée</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Horticulteur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Horticulteur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les missions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les spécialités</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les métiers de ce secteur économique sont généralement des métiers d'extérieur et donc soumis aux aléas climatiques (pluie, vent, neige, froid...). Les emplois sous serres sont soumis aux chaleurs estivales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Horticulteur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Horticulteur</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les missions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les spécialités</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Le pépiniériste</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les métiers connexes, on désignera du nom de pépiniériste un agriculteur spécialisé dans la production de plantes pérennes ou ligneuses d'extérieur qui demandent plusieurs années de culture avant d'être commercialisables.
 Le pépiniériste est généraliste et pourra donc aussi bien produire des arbres fruitiers, des arbres d'ornement, des plantes vivaces, etc.
-Le pépiniériste collectionneur
-C'est un professionnel qui propose dans son catalogue des essences ligneuses généralement issues d'un individu prélevé dans la nature de son milieu d'origine. Comme son nom l'indique il collectionne et commercialise des espèces végétales en petite quantité qui sortent de l'ordinaire. En principe, ce ne devrait pas être des plantes protégées car elles sont interdites à la vente et à la circulation sans une autorisation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Horticulteur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Horticulteur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les missions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Les spécialités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Le pépiniériste collectionneur</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un professionnel qui propose dans son catalogue des essences ligneuses généralement issues d'un individu prélevé dans la nature de son milieu d'origine. Comme son nom l'indique il collectionne et commercialise des espèces végétales en petite quantité qui sortent de l'ordinaire. En principe, ce ne devrait pas être des plantes protégées car elles sont interdites à la vente et à la circulation sans une autorisation.
 On les trouve généralement dans toutes les foires aux plantes...
-Le floriculteur
-C'est le spécialiste, dans la floriculture, de la production ainsi que la vente de plantes le plus souvent exotiques. Les produits commercialisés sont les plantes d'intérieur vertes ou fleuries, les fleurs coupées, les plantes à massif.
-Le maraîcher
-Professionnel de la production de végétaux majoritairement vivriers. Il produit fruits, légumes, et parfois des productions comme le muguet dans la région nantaise. Les fruits et les légumes sont considérés comme des produits de l'horticulture, tandis que les céréales et la betterave sont des produits de l'agriculture au sens strict.
-Les métiers liés au paysagisme
-L'architecte paysagiste
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Horticulteur</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Horticulteur</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les missions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Les spécialités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Le floriculteur</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le spécialiste, dans la floriculture, de la production ainsi que la vente de plantes le plus souvent exotiques. Les produits commercialisés sont les plantes d'intérieur vertes ou fleuries, les fleurs coupées, les plantes à massif.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Horticulteur</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Horticulteur</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les missions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Les spécialités</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Le maraîcher</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Professionnel de la production de végétaux majoritairement vivriers. Il produit fruits, légumes, et parfois des productions comme le muguet dans la région nantaise. Les fruits et les légumes sont considérés comme des produits de l'horticulture, tandis que les céréales et la betterave sont des produits de l'agriculture au sens strict.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Horticulteur</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Horticulteur</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les missions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Les spécialités</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Les métiers liés au paysagisme</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'architecte paysagiste
 Spécialiste de la mise sur plan des attentes des clients dans le but de leur donner satisfaction. Il prévoit la place de chacun des végétaux, du tracé des allées, des circuits pour l'arrosage intégré, l'emplacement des dallages, et des petits éléments maçonnés.
 L'ouvrier paysagiste
 Ouvrier responsable de la mise en place des végétaux (plantations). Il est chargé de mettre en place, d'aménager et d'entretenir les espaces verts : parcs, jardins, massifs, terrains de sport. Lorsqu'il participe à leur création, il travaille souvent d'après les plans de l'architecte paysagiste.
